--- a/ExcelConfig/兵种进化.xlsx
+++ b/ExcelConfig/兵种进化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -75,38 +75,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001:1|1002:2</t>
+    <t>10001:1|1002:4</t>
+  </si>
+  <si>
+    <t>10001:1|1002:5</t>
+  </si>
+  <si>
+    <t>10001:1|1002:6</t>
+  </si>
+  <si>
+    <t>10001:1|1002:7</t>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种升级表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10001:1|1002:3</t>
-  </si>
-  <si>
-    <t>10001:1|1002:4</t>
-  </si>
-  <si>
-    <t>10001:1|1002:5</t>
-  </si>
-  <si>
-    <t>10001:1|1002:6</t>
-  </si>
-  <si>
-    <t>10001:1|1002:7</t>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种升级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:100|2:200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,27 +520,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -556,21 +557,21 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -641,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -661,10 +662,10 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -678,10 +679,10 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -695,10 +696,10 @@
         <v>-1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -712,10 +713,10 @@
         <v>-1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -729,7 +730,7 @@
         <v>-1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/兵种进化.xlsx
+++ b/ExcelConfig/兵种进化.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="7950" yWindow="120" windowWidth="12480" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MonsterLvlUpConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,59 +55,112 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>进化消耗物品1</t>
+    <t>OldMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LateMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterLvlUpConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种升级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化消耗物品</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>OldMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LateMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostItems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001:1|1002:4</t>
-  </si>
-  <si>
-    <t>10001:1|1002:5</t>
-  </si>
-  <si>
-    <t>10001:1|1002:6</t>
-  </si>
-  <si>
-    <t>10001:1|1002:7</t>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterLvlUpConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种升级表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001:1|1002:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:100|2:200</t>
+    <t>物品消耗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61|65</t>
+  </si>
+  <si>
+    <t>61|65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62|66</t>
+  </si>
+  <si>
+    <t>62|66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69|73</t>
+  </si>
+  <si>
+    <t>69|73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70|74</t>
+  </si>
+  <si>
+    <t>70|74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77|81</t>
+  </si>
+  <si>
+    <t>77|81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78|82</t>
+  </si>
+  <si>
+    <t>78|82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85|89</t>
+  </si>
+  <si>
+    <t>85|89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86|90</t>
+  </si>
+  <si>
+    <t>93|82</t>
+  </si>
+  <si>
+    <t>96|82</t>
+  </si>
+  <si>
+    <t>100|82</t>
+  </si>
+  <si>
+    <t>1|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,27 +224,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -206,10 +244,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -228,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,16 +567,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -551,13 +587,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,11 +603,12 @@
     <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,19 +616,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,8 +650,11 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -628,109 +671,874 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
         <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>39</v>
+      </c>
+      <c r="C42" s="2">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2">
+        <v>48</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/兵种进化.xlsx
+++ b/ExcelConfig/兵种进化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="120" windowWidth="12480" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="375" yWindow="-255" windowWidth="10110" windowHeight="9705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,68 +99,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>61|65</t>
-  </si>
-  <si>
-    <t>61|65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62|66</t>
-  </si>
-  <si>
-    <t>62|66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69|73</t>
-  </si>
-  <si>
-    <t>69|73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70|74</t>
-  </si>
-  <si>
-    <t>70|74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77|81</t>
-  </si>
-  <si>
-    <t>77|81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78|82</t>
-  </si>
-  <si>
-    <t>78|82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85|89</t>
-  </si>
-  <si>
-    <t>85|89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86|90</t>
-  </si>
-  <si>
-    <t>93|82</t>
-  </si>
-  <si>
-    <t>96|82</t>
-  </si>
-  <si>
-    <t>100|82</t>
-  </si>
-  <si>
-    <t>1|1</t>
+    <t>混世小妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐</t>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139|140|172</t>
+  </si>
+  <si>
+    <t>128|129|172</t>
+  </si>
+  <si>
+    <t>137|138|172</t>
+  </si>
+  <si>
+    <t>133|134|172</t>
+  </si>
+  <si>
+    <t>129|130|172</t>
+  </si>
+  <si>
+    <t>129|131|172</t>
+  </si>
+  <si>
+    <t>129|132|172</t>
+  </si>
+  <si>
+    <t>141|142|172</t>
+  </si>
+  <si>
+    <t>124|125|172</t>
+  </si>
+  <si>
+    <t>1|1|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +220,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +271,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,13 +617,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,7 +633,7 @@
     <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -677,52 +707,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -731,52 +770,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -785,18 +833,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="4">
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>
@@ -805,32 +856,38 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="4">
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="D11" s="2">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" s="4">
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -839,52 +896,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="E13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>500</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="4">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="4">
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -893,52 +959,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="4">
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="D16" s="2">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="E16" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="4">
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D17" s="2">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="E17" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="4">
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -947,52 +1022,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="4">
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="E19" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="4">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="E20" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="4">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -1001,52 +1085,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="4">
         <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="E22" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="4">
         <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="E23" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="4">
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -1055,52 +1148,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="4">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="E25" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="4">
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="D26" s="2">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="E26" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="4">
         <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2">
         <v>-1</v>
@@ -1109,52 +1211,61 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="4">
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="E28" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="4">
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="4">
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="D30" s="2">
         <v>-1</v>
@@ -1163,387 +1274,65 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2">
-        <v>29</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>32</v>
-      </c>
-      <c r="D35" s="2">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>34</v>
-      </c>
-      <c r="D37" s="2">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2">
-        <v>36</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2">
-        <v>38</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2">
-        <v>39</v>
-      </c>
-      <c r="E41" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
-        <v>40</v>
-      </c>
-      <c r="C43" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2">
-        <v>41</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2">
-        <v>47</v>
-      </c>
-      <c r="E49" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2">
-        <v>47</v>
-      </c>
-      <c r="D50" s="2">
-        <v>48</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>48</v>
-      </c>
-      <c r="C51" s="2">
-        <v>48</v>
-      </c>
-      <c r="D51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>-1</v>
-      </c>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
